--- a/medicine/Enfance/Blexbolex/Blexbolex.xlsx
+++ b/medicine/Enfance/Blexbolex/Blexbolex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blexbolex[1], pseudonyme de Bernard Granger, né à Douai en 1966, est un sérigraphe, illustrateur et auteur de bande dessinée français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blexbolex, pseudonyme de Bernard Granger, né à Douai en 1966, est un sérigraphe, illustrateur et auteur de bande dessinée français.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entré en 1984 à l'école des beaux-arts d'Angoulême, en section peinture avec l'intention de devenir peintre, Blexbolex en sort six ans plus tard sérigraphe. Ses premières productions sont auto-éditées dans les années 1990. Leur graphisme expressionniste rappelle l'influence de Gary Panter, David Sandlin (en) et Philip Guston[réf. souhaitée]. Il participe à Popo Color, Fusée, Ferraille ou encore Comix 2000.
 Son esthétique évolue au cours des années 2000. Son style rappelle les polars des années 1950-1960, avec un graphisme et un chromatisme très marqué évoquant la technique du pochoir[réf. souhaitée].
-Il vit en Allemagne où il dirige un atelier d'art à l'université de Berlin-Weissensee (de)[2]. Il travaille régulièrement avec plusieurs éditeurs, dont Albin Michel Jeunesse, Thierry Magnier, Pipifax, United Dead Artists, Les Requins-Marteaux, en France et en Allemagne.
-Son travail se partage entre bande dessinée et album, entre image et texte, entre livre et revues[3].
+Il vit en Allemagne où il dirige un atelier d'art à l'université de Berlin-Weissensee (de). Il travaille régulièrement avec plusieurs éditeurs, dont Albin Michel Jeunesse, Thierry Magnier, Pipifax, United Dead Artists, Les Requins-Marteaux, en France et en Allemagne.
+Son travail se partage entre bande dessinée et album, entre image et texte, entre livre et revues.
 En dehors de sa production personnelle, il collabore avec l'éditeur Cornélius.
-En 2009, il reçoit « Le prix du plus beau livre du monde » (« The best bookdesign from all over the world ») à la foire du livre de Leipzig[4] pour son Imagier des gens (Albin Michel Jeunesse). L'Imagier des gens, Saisons et Romance composent un triptyque consacré à l'imagier.
-En 2017, son ouvrage jeunesse Nos vacances reçoit la Pépite d’or[5] (ex-Prix Baobab) décernée par un jury professionnel au Salon du livre et de la presse jeunesse de Montreuil.
+En 2009, il reçoit « Le prix du plus beau livre du monde » (« The best bookdesign from all over the world ») à la foire du livre de Leipzig pour son Imagier des gens (Albin Michel Jeunesse). L'Imagier des gens, Saisons et Romance composent un triptyque consacré à l'imagier.
+En 2017, son ouvrage jeunesse Nos vacances reçoit la Pépite d’or (ex-Prix Baobab) décernée par un jury professionnel au Salon du livre et de la presse jeunesse de Montreuil.
 </t>
         </is>
       </c>
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums et ouvrages pour la jeunesse
-Les Souvenirs d'Elmir Grömek et de son chien Pikü : Rogaton Man, texte Frau Mental (pseudonyme de Jean-Luc Fromental), Seuil jeunesse, 2001 ;
+          <t>Albums et ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Souvenirs d'Elmir Grömek et de son chien Pikü : Rogaton Man, texte Frau Mental (pseudonyme de Jean-Luc Fromental), Seuil jeunesse, 2001 ;
 L'Affaire Noël, texte de Gérard Moncomble, Nathan jeunesse, 2003 ;
 Bim de la jungle, éditions Thierry Magnier, Collection « Tête de lard », 2004 ;
 Petites et Grandes Fables de Sophios texte de Michel Piquemal, éditions Albin Michel jeunesse, 2004 ;
@@ -569,9 +588,43 @@
 Romance, Albin Michel Jeunesse, 2013 ;
 Nos vacances, Albin Michel Jeunesse, 2017 ;
 Maître chat, Trapèze / Albin Michel Jeunesse, 2018.
-Les Magiciens, éditions La Partie, 2022  (ISBN 9782492768163)
-Récits graphiques et autres ouvrages
-Cahier de Jef, auto-édité, 1992. Livre en sérigraphie et xérographie, 35 exemplaires.
+Les Magiciens, éditions La Partie, 2022  (ISBN 9782492768163)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blexbolex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blexbolex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récits graphiques et autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cahier de Jef, auto-édité, 1992. Livre en sérigraphie et xérographie, 35 exemplaires.
 The Woodaddict, auto-édité, 1992. Livre en sérigraphie, 50 exemplaires.
 Ourgh ! auto-édité, 1993. Livre au pochoir ou à la main ; reliure visse et écrou, 24 exemplaires.
 Legs Box, auto-édité, 1993. Livre en sérigraphie et xérographie, 50 exemplaires.
@@ -608,37 +661,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Blexbolex</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Blexbolex</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2007 : Sélection Officielle, Festival d'Angoulême 2007 pour L'Œil privé
 2011 :  Pinceau d'argent (nl) pour Saisons
 2011 :  Pinceau d'or (nl)  pour Saisons
 2013 : Sélection Officielle, Festival d'Angoulême 2013 pour Hors-zone
-2017 : Pépite d’or[5] (ex-Prix Baobab) du Salon du livre de jeunesse de Montreuil pour Nos vacances</t>
+2017 : Pépite d’or (ex-Prix Baobab) du Salon du livre de jeunesse de Montreuil pour Nos vacances</t>
         </is>
       </c>
     </row>
